--- a/spliced/struggle/2023-04-06_17-42-46/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-42-46/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2003364562988281</v>
+        <v>0.0610952377319335</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6192827224731445</v>
+        <v>0.5822855234146118</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0097306966781616</v>
+        <v>0.008422106504440301</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1266735037978812</v>
+        <v>-0.03398093824483917</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.426815969603404</v>
+        <v>-2.852332382786031</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2018442184341198</v>
+        <v>0.3628882449500415</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1392936706542968</v>
+        <v>0.2003364562988281</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3245168924331665</v>
+        <v>0.6192827224731445</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0351060479879379</v>
+        <v>-0.0097306966781616</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1538507725511279</v>
+        <v>-0.1266735037978812</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2260856117521008</v>
+        <v>-1.426815969603404</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.09954921262604832</v>
+        <v>0.2018442184341198</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.261228561401367</v>
+        <v>0.1392936706542968</v>
       </c>
       <c r="D4" t="n">
-        <v>1.41911768913269</v>
+        <v>0.3245168924331665</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.086977005004883</v>
+        <v>0.0351060479879379</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4955612986671659</v>
+        <v>-0.1538507725511279</v>
       </c>
       <c r="G4" t="n">
-        <v>3.062298653077098</v>
+        <v>0.2260856117521008</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.5691612070920504</v>
+        <v>-0.09954921262604832</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.267774105072021</v>
+        <v>1.261228561401367</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.184367299079895</v>
+        <v>1.41911768913269</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.818997621536255</v>
+        <v>-4.086977005004883</v>
       </c>
       <c r="F5" t="n">
-        <v>1.454008883359481</v>
+        <v>0.4955612986671659</v>
       </c>
       <c r="G5" t="n">
-        <v>4.839717144868811</v>
+        <v>3.062298653077098</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.2820296159812385</v>
+        <v>-0.5691612070920504</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.021368980407715</v>
+        <v>2.267774105072021</v>
       </c>
       <c r="D6" t="n">
-        <v>2.765882253646851</v>
+        <v>-1.184367299079895</v>
       </c>
       <c r="E6" t="n">
-        <v>1.220625877380371</v>
+        <v>-3.818997621536255</v>
       </c>
       <c r="F6" t="n">
-        <v>1.137240985218359</v>
+        <v>1.454008883359481</v>
       </c>
       <c r="G6" t="n">
-        <v>3.374921506764936</v>
+        <v>4.839717144868811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5055315214760452</v>
+        <v>-0.2820296159812385</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.566243886947632</v>
+        <v>-1.021368980407715</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6303287744522095</v>
+        <v>2.765882253646851</v>
       </c>
       <c r="E7" t="n">
-        <v>0.5539150238037109</v>
+        <v>1.220625877380371</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2921525373750798</v>
+        <v>1.137240985218359</v>
       </c>
       <c r="G7" t="n">
-        <v>1.951630319867816</v>
+        <v>3.374921506764936</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7453397719227535</v>
+        <v>0.5055315214760452</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-2.018197059631348</v>
+        <v>-1.566243886947632</v>
       </c>
       <c r="D8" t="n">
-        <v>1.482012748718261</v>
+        <v>0.6303287744522095</v>
       </c>
       <c r="E8" t="n">
-        <v>1.627924919128418</v>
+        <v>0.5539150238037109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1624465198541174</v>
+        <v>0.2921525373750798</v>
       </c>
       <c r="G8" t="n">
-        <v>1.506097605033798</v>
+        <v>1.951630319867816</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4439899596024537</v>
+        <v>0.7453397719227535</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.581077575683594</v>
+        <v>-2.018197059631348</v>
       </c>
       <c r="D9" t="n">
-        <v>2.173830270767212</v>
+        <v>1.482012748718261</v>
       </c>
       <c r="E9" t="n">
-        <v>9.107954978942873</v>
+        <v>1.627924919128418</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2823693378239257</v>
+        <v>0.1624465198541174</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.7324928641319217</v>
+        <v>1.506097605033798</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.04955176400894934</v>
+        <v>0.4439899596024537</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2751750946044922</v>
+        <v>-4.581077575683594</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.9806771278381348</v>
+        <v>2.173830270767212</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.06553053855896</v>
+        <v>9.107954978942873</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6597999164036341</v>
+        <v>0.2823693378239257</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.261745044163296</v>
+        <v>-0.7324928641319217</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7145596061434063</v>
+        <v>-0.04955176400894934</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.35319709777832</v>
+        <v>-0.2751750946044922</v>
       </c>
       <c r="D11" t="n">
-        <v>1.910999298095703</v>
+        <v>-0.9806771278381348</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.476747035980225</v>
+        <v>-2.06553053855896</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.235334702292262</v>
+        <v>-0.6597999164036341</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.321111241165461</v>
+        <v>-4.261745044163296</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.293212206996212</v>
+        <v>-0.7145596061434063</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-4.167366027832031</v>
+        <v>2.35319709777832</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09876181930303569</v>
+        <v>1.910999298095703</v>
       </c>
       <c r="E12" t="n">
-        <v>3.953242778778076</v>
+        <v>-2.476747035980225</v>
       </c>
       <c r="F12" t="n">
-        <v>0.393702644170544</v>
+        <v>-1.235334702292262</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.912042505887086</v>
+        <v>-4.321111241165461</v>
       </c>
       <c r="H12" t="n">
-        <v>0.653996666171116</v>
+        <v>-0.293212206996212</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.787458419799805</v>
+        <v>-4.167366027832031</v>
       </c>
       <c r="D13" t="n">
-        <v>1.655651211738586</v>
+        <v>0.09876181930303569</v>
       </c>
       <c r="E13" t="n">
-        <v>-5.035046577453613</v>
+        <v>3.953242778778076</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5366638071683012</v>
+        <v>0.393702644170544</v>
       </c>
       <c r="G13" t="n">
-        <v>-2.253858975001746</v>
+        <v>-1.912042505887086</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0269684557403839</v>
+        <v>0.653996666171116</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-9.838252067565918</v>
+        <v>-1.787458419799805</v>
       </c>
       <c r="D14" t="n">
-        <v>3.984453201293945</v>
+        <v>1.655651211738586</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.098217010498047</v>
+        <v>-5.035046577453613</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.129132547548839</v>
+        <v>0.5366638071683012</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.7719840942596894</v>
+        <v>-2.253858975001746</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03628414990950613</v>
+        <v>0.0269684557403839</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6.411758422851562</v>
+        <v>-9.838252067565918</v>
       </c>
       <c r="D15" t="n">
-        <v>1.583425164222717</v>
+        <v>3.984453201293945</v>
       </c>
       <c r="E15" t="n">
-        <v>7.352428436279297</v>
+        <v>-6.098217010498047</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3077981770038601</v>
+        <v>-0.129132547548839</v>
       </c>
       <c r="G15" t="n">
-        <v>1.624053824921043</v>
+        <v>-0.7719840942596894</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1965552446793536</v>
+        <v>0.03628414990950613</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.261712551116944</v>
+        <v>6.411758422851562</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8220813274383545</v>
+        <v>1.583425164222717</v>
       </c>
       <c r="E16" t="n">
-        <v>1.315514087677002</v>
+        <v>7.352428436279297</v>
       </c>
       <c r="F16" t="n">
-        <v>1.183255352536026</v>
+        <v>0.3077981770038601</v>
       </c>
       <c r="G16" t="n">
-        <v>3.720431172117896</v>
+        <v>1.624053824921043</v>
       </c>
       <c r="H16" t="n">
-        <v>0.4516974523359422</v>
+        <v>0.1965552446793536</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.646389007568359</v>
+        <v>-2.261712551116944</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2190679311752319</v>
+        <v>0.8220813274383545</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9841623306274414</v>
+        <v>1.315514087677002</v>
       </c>
       <c r="F17" t="n">
-        <v>0.7590655258723678</v>
+        <v>1.183255352536026</v>
       </c>
       <c r="G17" t="n">
-        <v>3.928779942648755</v>
+        <v>3.720431172117896</v>
       </c>
       <c r="H17" t="n">
-        <v>1.171988606452941</v>
+        <v>0.4516974523359422</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.105591297149658</v>
+        <v>-1.646389007568359</v>
       </c>
       <c r="D18" t="n">
-        <v>1.020219326019287</v>
+        <v>0.2190679311752319</v>
       </c>
       <c r="E18" t="n">
-        <v>3.201179504394531</v>
+        <v>0.9841623306274414</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2291679642334281</v>
+        <v>0.7590655258723678</v>
       </c>
       <c r="G18" t="n">
-        <v>2.087977978647975</v>
+        <v>3.928779942648755</v>
       </c>
       <c r="H18" t="n">
-        <v>1.354070066189282</v>
+        <v>1.171988606452941</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-4.33466100692749</v>
+        <v>-1.105591297149658</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.8289146423339844</v>
+        <v>1.020219326019287</v>
       </c>
       <c r="E19" t="n">
-        <v>6.12528133392334</v>
+        <v>3.201179504394531</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03184602683296017</v>
+        <v>0.2291679642334281</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9907392433711465</v>
+        <v>2.087977978647975</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4831009315592913</v>
+        <v>1.354070066189282</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.558335304260254</v>
+        <v>-4.33466100692749</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.159212052822113</v>
+        <v>-0.8289146423339844</v>
       </c>
       <c r="E20" t="n">
-        <v>1.605715155601502</v>
+        <v>6.12528133392334</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04444044737183325</v>
+        <v>0.03184602683296017</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1521864691559109</v>
+        <v>0.9907392433711465</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.2139835976520377</v>
+        <v>0.4831009315592913</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-1.558335304260254</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-0.159212052822113</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.605715155601502</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.04444044737183325</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.1521864691559109</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.2139835976520377</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>-0.9647946357727052</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>1.00678539276123</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>-4.680802822113037</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>-0.4428928944529248</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>-2.088161782342548</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>-1.22169929499528</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.810809135437012</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.403007388114929</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.0495486259460449</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-1.581159264457474</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-3.781517471585969</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-2.15734222470499</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.585423946380615</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.060841083526612</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-2.507726192474365</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.5357818153439736</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.6552340047700065</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5789350879435637</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.486822128295898</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.457437515258789</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-1.076503276824951</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.4312272305999488</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.03695735122476339</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.2086323031357354</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3.813155174255371</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-5.157403945922852</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7.194998264312744</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.1521366113910867</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3846518628451288</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.3579327458021597</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.507768154144287</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.501498937606812</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7795240879058838</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.3417635331956719</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5353018106246487</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.2242374224018085</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2215757369995117</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-0.4009582996368408</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2.163901329040528</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.1421539567563001</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2858568746216445</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-0.08254160519157175</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.1625576019287109</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.34720504283905</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-0.6319388151168823</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.06803667803808118</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1790894811250734</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.08434615633925557</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.044438362121582</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.1398162841796875</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-0.8414495587348938</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.08848196070413178</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.1032362286837731</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.232543302129726</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1983919143676757</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.413076639175415</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2017757892608642</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.06249837318853448</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.04699299066346516</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.2259266389419836</v>
       </c>
     </row>
   </sheetData>
